--- a/report_ca_nhan/SÓC TRĂNG/NV-10 Lê Đình Hậu 7-2024.xlsx
+++ b/report_ca_nhan/SÓC TRĂNG/NV-10 Lê Đình Hậu 7-2024.xlsx
@@ -714,10 +714,10 @@
         <v>7500000</v>
       </c>
       <c r="M5" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="N5" t="n">
-        <v>975000</v>
+        <v>1125000</v>
       </c>
     </row>
     <row r="6">
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -804,10 +804,10 @@
         <v>76500000</v>
       </c>
       <c r="M7" t="n">
-        <v>0.67</v>
+        <v>0.7100000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>10585000</v>
+        <v>10735000</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5775000</v>
+        <v>5925000</v>
       </c>
     </row>
     <row r="6">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5775000</v>
+        <v>5925000</v>
       </c>
     </row>
     <row r="32">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10058571.42857143</v>
+        <v>10208571.42857143</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/SÓC TRĂNG/NV-10 Lê Đình Hậu 7-2024.xlsx
+++ b/report_ca_nhan/SÓC TRĂNG/NV-10 Lê Đình Hậu 7-2024.xlsx
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350000</v>
+        <v>490000</v>
       </c>
     </row>
     <row r="4">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3503571.428571429</v>
+        <v>4905000</v>
       </c>
     </row>
     <row r="23">
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4283571.428571429</v>
+        <v>5825000</v>
       </c>
     </row>
     <row r="34">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10208571.42857143</v>
+        <v>11750000</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/SÓC TRĂNG/NV-10 Lê Đình Hậu 7-2024.xlsx
+++ b/report_ca_nhan/SÓC TRĂNG/NV-10 Lê Đình Hậu 7-2024.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,35 +779,91 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>578</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>đường thị út</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nâng cung chân mày</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="I7" t="n">
+        <v/>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N7" t="n">
+        <v>910000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>90000000</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>90000000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>76500000</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.7100000000000001</v>
-      </c>
-      <c r="N7" t="n">
-        <v>10735000</v>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>97000000</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>97000000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>83500000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11645000</v>
       </c>
     </row>
   </sheetData>
@@ -1597,7 +1653,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4810000</v>
+        <v>5720000</v>
       </c>
     </row>
     <row r="24">
@@ -1697,7 +1753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5825000</v>
+        <v>6735000</v>
       </c>
     </row>
     <row r="34">
@@ -1707,7 +1763,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11750000</v>
+        <v>12660000</v>
       </c>
     </row>
   </sheetData>
